--- a/medicine/Mort/Cimetière_de_la_Guicharde_de_Sanary-sur-Mer/Cimetière_de_la_Guicharde_de_Sanary-sur-Mer.xlsx
+++ b/medicine/Mort/Cimetière_de_la_Guicharde_de_Sanary-sur-Mer/Cimetière_de_la_Guicharde_de_Sanary-sur-Mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Guicharde_de_Sanary-sur-Mer</t>
+          <t>Cimetière_de_la_Guicharde_de_Sanary-sur-Mer</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière de la Guicharde est l'un des deux cimetières municipaux de la ville de Sanary-sur-Mer dans le Var et le plus récent puisqu'il a ouvert au milieu du XXe siècle[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière de la Guicharde est l'un des deux cimetières municipaux de la ville de Sanary-sur-Mer dans le Var et le plus récent puisqu'il a ouvert au milieu du XXe siècle.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Guicharde_de_Sanary-sur-Mer</t>
+          <t>Cimetière_de_la_Guicharde_de_Sanary-sur-Mer</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire et description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière ancien de Sanary n'étant pas suffisant, la municipalité ouvre un nouveau cimetière sur un terrain plat dans les années 1950. Il est agrandi en 1980. De plan rectangulaire, les allées rectilignes se coupent à angle droit et certaines sont plantées d'arbres La sépulture la plus connue est celle de l'actrice Marie-France Pisier dont l'époux[2] est propriétaire d'une résidence dans les environs. Elle est inhumée dans la concession Duhamel-Funck-Brentano[3], allée des Pivoines[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière ancien de Sanary n'étant pas suffisant, la municipalité ouvre un nouveau cimetière sur un terrain plat dans les années 1950. Il est agrandi en 1980. De plan rectangulaire, les allées rectilignes se coupent à angle droit et certaines sont plantées d'arbres La sépulture la plus connue est celle de l'actrice Marie-France Pisier dont l'époux est propriétaire d'une résidence dans les environs. Elle est inhumée dans la concession Duhamel-Funck-Brentano, allée des Pivoines.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_la_Guicharde_de_Sanary-sur-Mer</t>
+          <t>Cimetière_de_la_Guicharde_de_Sanary-sur-Mer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Personnalités inhumées</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Jacques Duhamel (1924-1977), homme politique, député, ancien ministre des affaires culturelles
 Colette Duhamel-Gallimard née Rousselot (1924-2008), veuve de Jacques Duhamel, puis épouse de Claude Gallimard
@@ -550,8 +566,8 @@
 Moïse Kisling (1891-1953), peintre
 Pierre Merlin (1906-1980), journaliste
 Évelyne Pisier (1941-2017), politologue, sœur de la suivante, première épouse de Bernard Kouchner, puis d'Olivier Duhamel
-Marie-France Pisier (1944-2011), actrice[5]
-Jean Vernier (1905-1980), Compagnon de la Libération[6]</t>
+Marie-France Pisier (1944-2011), actrice
+Jean Vernier (1905-1980), Compagnon de la Libération</t>
         </is>
       </c>
     </row>
